--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fperrino\Desktop\KPI UT_LAVORO_LEFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353461B-ADD5-482E-BD4A-0FAFF446319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{58E92D57-2F59-48EE-AB16-C71880489783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -465,17 +464,26 @@
   </si>
   <si>
     <t>MIL ANTONY</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-410]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +631,7 @@
         <xdr:cNvPr id="2" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +691,7 @@
         <xdr:cNvPr id="3" name="Arrow: Down 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,97 +1052,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C49DA1-CA83-42CF-8514-EA6C0A91E2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36:Z37"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CI5" sqref="CI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.75" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.75" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.25" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="17" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="45.125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="16" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90">
       <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
@@ -1651,12 +1659,14 @@
       <c r="CF2" s="9"/>
       <c r="CG2" s="9"/>
       <c r="CH2" s="9"/>
-      <c r="CI2" s="9"/>
+      <c r="CI2" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="CJ2" s="9"/>
       <c r="CK2" s="9"/>
       <c r="CL2" s="12"/>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90">
       <c r="A3" s="13" t="s">
         <v>90</v>
       </c>
@@ -1901,12 +1911,14 @@
       <c r="CF3" s="14"/>
       <c r="CG3" s="14"/>
       <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
+      <c r="CI3" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="CJ3" s="14"/>
       <c r="CK3" s="14"/>
       <c r="CL3" s="17"/>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -2143,6 +2155,9 @@
       </c>
       <c r="CC4" t="s">
         <v>141</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="146">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -500,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,12 +517,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -584,16 +578,12 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +621,7 @@
         <xdr:cNvPr id="2" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -691,7 +681,7 @@
         <xdr:cNvPr id="3" name="Arrow: Down 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL4"/>
+  <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CI5" sqref="CI5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1667,498 +1657,1264 @@
       <c r="CL2" s="12"/>
     </row>
     <row r="3" spans="1:90">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>2025</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>2025</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>84</v>
       </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
         <v>84</v>
       </c>
-      <c r="M3" s="15">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0</v>
-      </c>
-      <c r="O3" s="15">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
-        <v>0</v>
-      </c>
-      <c r="S3" s="15">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15">
-        <v>0</v>
-      </c>
-      <c r="U3" s="15">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14" t="s">
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AB3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="9">
         <v>2025</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="9">
         <v>2222</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AI3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AK3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AL3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AM3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AO3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AP3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AT3" s="14" t="s">
+      <c r="AT3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AU3" s="14" t="s">
+      <c r="AU3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AX3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AY3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" s="14" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="BA3" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BB3" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BD3" s="14">
+      <c r="BD3" s="9">
         <v>84</v>
       </c>
-      <c r="BE3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="16">
+      <c r="BE3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="11">
         <v>84</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BQ3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BR3" s="14" t="s">
+      <c r="BR3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="BS3" s="14" t="s">
+      <c r="BS3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BT3" s="14" t="s">
+      <c r="BT3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BU3" s="14" t="s">
+      <c r="BU3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="BV3" s="14" t="s">
+      <c r="BV3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BW3" s="14" t="s">
+      <c r="BW3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="BX3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="14" t="s">
+      <c r="BX3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="14"/>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14" t="s">
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14"/>
-      <c r="CL3" s="17"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="12"/>
     </row>
     <row r="4" spans="1:90">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>2025</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>2025</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AB4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AB4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="13">
         <v>2025</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="13">
         <v>3333</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AR4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AS4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AU4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AV4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AX4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AY4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BA4" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BB4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
+      <c r="BD4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="13">
         <v>1</v>
       </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
+      <c r="BG4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="13">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="13">
         <v>1</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BQ4" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BS4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BT4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BU4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BV4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BW4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BX4" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA4" t="s">
+      <c r="BX4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ4" s="13"/>
+      <c r="CA4" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="CB4" s="13"/>
+      <c r="CC4" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="CI4" t="s">
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="13"/>
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="13"/>
+      <c r="CI4" s="13" t="s">
         <v>145</v>
       </c>
+      <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="13"/>
+    </row>
+    <row r="5" spans="1:90">
+      <c r="A5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="10">
+        <v>63</v>
+      </c>
+      <c r="K5" s="10">
+        <v>63</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2025</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>1111</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>63</v>
+      </c>
+      <c r="BE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="11">
+        <v>63</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="12"/>
+    </row>
+    <row r="6" spans="1:90">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="10">
+        <v>84</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>84</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>2222</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>84</v>
+      </c>
+      <c r="BE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="11">
+        <v>84</v>
+      </c>
+      <c r="BQ6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="12"/>
+    </row>
+    <row r="7" spans="1:90">
+      <c r="A7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>3333</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ7" s="13"/>
+      <c r="CA7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB7" s="13"/>
+      <c r="CC7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD7" s="13"/>
+      <c r="CE7" s="13"/>
+      <c r="CF7" s="13"/>
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="13"/>
+      <c r="CL7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718B5F8-175D-4401-977D-F3E5968D5B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="152">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -473,17 +463,35 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-410]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,12 +586,12 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +629,7 @@
         <xdr:cNvPr id="2" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A43C5-BB63-6699-B74F-14975C1D91B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,7 +689,7 @@
         <xdr:cNvPr id="3" name="Arrow: Down 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B740708-7C98-4140-A9C0-654DA4D2BF60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,97 +1050,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="17" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="16" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="15">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
@@ -1504,8 +1512,8 @@
       <c r="AG2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AH2" s="9">
-        <v>1111</v>
+      <c r="AH2" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>97</v>
@@ -1656,7 +1664,7 @@
       <c r="CK2" s="9"/>
       <c r="CL2" s="12"/>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>90</v>
       </c>
@@ -1756,8 +1764,8 @@
       <c r="AG3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH3" s="9">
-        <v>2222</v>
+      <c r="AH3" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>97</v>
@@ -1908,259 +1916,249 @@
       <c r="CK3" s="9"/>
       <c r="CL3" s="12"/>
     </row>
-    <row r="4" spans="1:90">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>2025</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>2025</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
-        <v>0</v>
-      </c>
-      <c r="W4" s="13" t="s">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" t="s">
         <v>123</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" t="s">
         <v>126</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AB4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" t="s">
         <v>127</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4">
         <v>2025</v>
       </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AF4" t="s">
         <v>128</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AG4" t="s">
         <v>142</v>
       </c>
-      <c r="AH4" s="13">
-        <v>3333</v>
-      </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AH4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI4" t="s">
         <v>125</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AJ4" t="s">
         <v>129</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" t="s">
         <v>130</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" t="s">
         <v>131</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AM4" t="s">
         <v>132</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AN4" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="13" t="s">
+      <c r="AO4" t="s">
         <v>95</v>
       </c>
-      <c r="AP4" s="13" t="s">
+      <c r="AP4" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" s="13" t="s">
+      <c r="AQ4" t="s">
         <v>133</v>
       </c>
-      <c r="AR4" s="13" t="s">
+      <c r="AR4" t="s">
         <v>134</v>
       </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AS4" t="s">
         <v>123</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AT4" t="s">
         <v>108</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AU4" t="s">
         <v>135</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AV4" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AW4" t="s">
         <v>110</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AX4" t="s">
         <v>92</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="AY4" t="s">
         <v>125</v>
       </c>
-      <c r="AZ4" s="13" t="s">
+      <c r="AZ4" t="s">
         <v>136</v>
       </c>
-      <c r="BA4" s="13" t="s">
+      <c r="BA4" t="s">
         <v>137</v>
       </c>
-      <c r="BB4" s="13" t="s">
+      <c r="BB4" t="s">
         <v>138</v>
       </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BC4" t="s">
         <v>139</v>
       </c>
-      <c r="BD4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="13">
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
         <v>1</v>
       </c>
-      <c r="BG4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="13">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="13">
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
         <v>1</v>
       </c>
-      <c r="BQ4" s="13" t="s">
+      <c r="BQ4" t="s">
         <v>115</v>
       </c>
-      <c r="BR4" s="13" t="s">
+      <c r="BR4" t="s">
         <v>126</v>
       </c>
-      <c r="BS4" s="13" t="s">
+      <c r="BS4" t="s">
         <v>140</v>
       </c>
-      <c r="BT4" s="13" t="s">
+      <c r="BT4" t="s">
         <v>123</v>
       </c>
-      <c r="BU4" s="13" t="s">
+      <c r="BU4" t="s">
         <v>92</v>
       </c>
-      <c r="BV4" s="13" t="s">
+      <c r="BV4" t="s">
         <v>127</v>
       </c>
-      <c r="BW4" s="13" t="s">
+      <c r="BW4" t="s">
         <v>90</v>
       </c>
-      <c r="BX4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ4" s="13"/>
-      <c r="CA4" s="13" t="s">
+      <c r="BX4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA4" t="s">
         <v>124</v>
       </c>
-      <c r="CB4" s="13"/>
-      <c r="CC4" s="13" t="s">
+      <c r="CC4" t="s">
         <v>141</v>
       </c>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="13"/>
-      <c r="CG4" s="13"/>
-      <c r="CH4" s="13"/>
-      <c r="CI4" s="13" t="s">
+      <c r="CI4" t="s">
         <v>145</v>
       </c>
-      <c r="CJ4" s="13"/>
-      <c r="CK4" s="13"/>
-      <c r="CL4" s="13"/>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -2260,8 +2258,8 @@
       <c r="AG5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AH5" s="9">
-        <v>1111</v>
+      <c r="AH5" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>97</v>
@@ -2412,7 +2410,7 @@
       <c r="CK5" s="9"/>
       <c r="CL5" s="12"/>
     </row>
-    <row r="6" spans="1:90">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>90</v>
       </c>
@@ -2512,8 +2510,8 @@
       <c r="AG6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AH6" s="9">
-        <v>2222</v>
+      <c r="AH6" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>97</v>
@@ -2664,257 +2662,247 @@
       <c r="CK6" s="9"/>
       <c r="CL6" s="12"/>
     </row>
-    <row r="7" spans="1:90">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>2025</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>2025</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13" t="s">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>95</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" t="s">
         <v>123</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" t="s">
         <v>124</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="Z7" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" s="13" t="s">
+      <c r="AA7" t="s">
         <v>126</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="13" t="s">
+      <c r="AB7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD7" t="s">
         <v>127</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7">
         <v>2025</v>
       </c>
-      <c r="AF7" s="13" t="s">
+      <c r="AF7" t="s">
         <v>128</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" t="s">
         <v>142</v>
       </c>
-      <c r="AH7" s="13">
-        <v>3333</v>
-      </c>
-      <c r="AI7" s="13" t="s">
+      <c r="AH7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI7" t="s">
         <v>125</v>
       </c>
-      <c r="AJ7" s="13" t="s">
+      <c r="AJ7" t="s">
         <v>129</v>
       </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AK7" t="s">
         <v>130</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AL7" t="s">
         <v>131</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AM7" t="s">
         <v>132</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AN7" t="s">
         <v>122</v>
       </c>
-      <c r="AO7" s="13" t="s">
+      <c r="AO7" t="s">
         <v>95</v>
       </c>
-      <c r="AP7" s="13" t="s">
+      <c r="AP7" t="s">
         <v>118</v>
       </c>
-      <c r="AQ7" s="13" t="s">
+      <c r="AQ7" t="s">
         <v>133</v>
       </c>
-      <c r="AR7" s="13" t="s">
+      <c r="AR7" t="s">
         <v>134</v>
       </c>
-      <c r="AS7" s="13" t="s">
+      <c r="AS7" t="s">
         <v>123</v>
       </c>
-      <c r="AT7" s="13" t="s">
+      <c r="AT7" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" s="13" t="s">
+      <c r="AU7" t="s">
         <v>135</v>
       </c>
-      <c r="AV7" s="13" t="s">
+      <c r="AV7" t="s">
         <v>94</v>
       </c>
-      <c r="AW7" s="13" t="s">
+      <c r="AW7" t="s">
         <v>110</v>
       </c>
-      <c r="AX7" s="13" t="s">
+      <c r="AX7" t="s">
         <v>92</v>
       </c>
-      <c r="AY7" s="13" t="s">
+      <c r="AY7" t="s">
         <v>125</v>
       </c>
-      <c r="AZ7" s="13" t="s">
+      <c r="AZ7" t="s">
         <v>136</v>
       </c>
-      <c r="BA7" s="13" t="s">
+      <c r="BA7" t="s">
         <v>137</v>
       </c>
-      <c r="BB7" s="13" t="s">
+      <c r="BB7" t="s">
         <v>138</v>
       </c>
-      <c r="BC7" s="13" t="s">
+      <c r="BC7" t="s">
         <v>139</v>
       </c>
-      <c r="BD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="13">
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
         <v>1</v>
       </c>
-      <c r="BG7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="13">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="13">
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
         <v>1</v>
       </c>
-      <c r="BQ7" s="13" t="s">
+      <c r="BQ7" t="s">
         <v>115</v>
       </c>
-      <c r="BR7" s="13" t="s">
+      <c r="BR7" t="s">
         <v>126</v>
       </c>
-      <c r="BS7" s="13" t="s">
+      <c r="BS7" t="s">
         <v>140</v>
       </c>
-      <c r="BT7" s="13" t="s">
+      <c r="BT7" t="s">
         <v>123</v>
       </c>
-      <c r="BU7" s="13" t="s">
+      <c r="BU7" t="s">
         <v>92</v>
       </c>
-      <c r="BV7" s="13" t="s">
+      <c r="BV7" t="s">
         <v>127</v>
       </c>
-      <c r="BW7" s="13" t="s">
+      <c r="BW7" t="s">
         <v>90</v>
       </c>
-      <c r="BX7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ7" s="13"/>
-      <c r="CA7" s="13" t="s">
+      <c r="BX7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA7" t="s">
         <v>124</v>
       </c>
-      <c r="CB7" s="13"/>
-      <c r="CC7" s="13" t="s">
+      <c r="CC7" t="s">
         <v>141</v>
       </c>
-      <c r="CD7" s="13"/>
-      <c r="CE7" s="13"/>
-      <c r="CF7" s="13"/>
-      <c r="CG7" s="13"/>
-      <c r="CH7" s="13"/>
-      <c r="CI7" s="13" t="s">
+      <c r="CI7" t="s">
         <v>145</v>
       </c>
-      <c r="CJ7" s="13"/>
-      <c r="CK7" s="13"/>
-      <c r="CL7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Superdettagli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3718B5F8-175D-4401-977D-F3E5968D5B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E961B0CD-5696-4161-ADD7-5E4A850DAA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:CL7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2008,7 @@
         <v>127</v>
       </c>
       <c r="AE4">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="AF4" t="s">
         <v>128</v>
